--- a/forms/app/quarantine.xlsx
+++ b/forms/app/quarantine.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\cht-lgh\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="295">
   <si>
     <t>list_name</t>
   </si>
@@ -176,18 +176,12 @@
     <t>places</t>
   </si>
   <si>
-    <t>hotel</t>
-  </si>
-  <si>
     <t>./source = 'user'</t>
   </si>
   <si>
     <t>field-list</t>
   </si>
   <si>
-    <t>Hotel</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -254,171 +248,24 @@
     <t>Other places</t>
   </si>
   <si>
-    <t>provinces</t>
-  </si>
-  <si>
-    <t>Province 1</t>
-  </si>
-  <si>
-    <t>Province 2</t>
-  </si>
-  <si>
-    <t>Bagmati</t>
-  </si>
-  <si>
-    <t>Gandaki</t>
-  </si>
-  <si>
-    <t>Province 5</t>
-  </si>
-  <si>
-    <t>Karnali</t>
-  </si>
-  <si>
     <t>label::es</t>
   </si>
   <si>
-    <t>Sudur Pashchim</t>
-  </si>
-  <si>
-    <t>districts</t>
-  </si>
-  <si>
-    <t>bhojpur</t>
-  </si>
-  <si>
-    <t>Bhojpur</t>
-  </si>
-  <si>
-    <t>dhankuta</t>
-  </si>
-  <si>
-    <t>Dhankuta</t>
-  </si>
-  <si>
-    <t>ilam</t>
-  </si>
-  <si>
-    <t>Ilam</t>
-  </si>
-  <si>
-    <t>jhapa</t>
-  </si>
-  <si>
-    <t>Jhapa</t>
-  </si>
-  <si>
     <t>traveler</t>
   </si>
   <si>
-    <t>khotang</t>
-  </si>
-  <si>
-    <t>Khotang</t>
-  </si>
-  <si>
-    <t>morang</t>
-  </si>
-  <si>
-    <t>Morang</t>
-  </si>
-  <si>
-    <t>okhaldhunga</t>
-  </si>
-  <si>
-    <t>Okhaldhunga</t>
-  </si>
-  <si>
-    <t>panchthar</t>
-  </si>
-  <si>
-    <t>Panchthar</t>
-  </si>
-  <si>
-    <t>sankhuwasabha</t>
-  </si>
-  <si>
-    <t>Sankhuwasabha</t>
-  </si>
-  <si>
-    <t>solukhumbu</t>
-  </si>
-  <si>
-    <t>Solukhumbu</t>
-  </si>
-  <si>
-    <t>sunsari</t>
-  </si>
-  <si>
-    <t>Sunsari</t>
-  </si>
-  <si>
-    <t>taplejung</t>
-  </si>
-  <si>
-    <t>Taplejung</t>
-  </si>
-  <si>
-    <t>terhathum</t>
-  </si>
-  <si>
-    <t>Terhathum</t>
-  </si>
-  <si>
-    <t>udayapur</t>
-  </si>
-  <si>
-    <t>Udayapur</t>
-  </si>
-  <si>
-    <t>saptari</t>
-  </si>
-  <si>
-    <t>Saptari</t>
-  </si>
-  <si>
     <t>last_name</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>siraha</t>
-  </si>
-  <si>
-    <t>Siraha</t>
-  </si>
-  <si>
-    <t>dhanusa</t>
-  </si>
-  <si>
-    <t>Dhanusa</t>
-  </si>
-  <si>
-    <t>mahottari</t>
-  </si>
-  <si>
-    <t>Mahottari</t>
-  </si>
-  <si>
-    <t>sarlahi</t>
-  </si>
-  <si>
-    <t>Sarlahi</t>
-  </si>
-  <si>
     <t>label::fr</t>
   </si>
   <si>
-    <t>bara</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>Bara</t>
-  </si>
-  <si>
     <t>first_name</t>
   </si>
   <si>
@@ -428,48 +275,12 @@
     <t>no</t>
   </si>
   <si>
-    <t>parsa</t>
-  </si>
-  <si>
-    <t>Parsa</t>
-  </si>
-  <si>
-    <t>rautahat</t>
-  </si>
-  <si>
-    <t>Rautahat</t>
-  </si>
-  <si>
     <t>nationality</t>
   </si>
   <si>
     <t>Nationality</t>
   </si>
   <si>
-    <t>sindhuli</t>
-  </si>
-  <si>
-    <t>Sindhuli</t>
-  </si>
-  <si>
-    <t>ramechhap</t>
-  </si>
-  <si>
-    <t>Ramechhap</t>
-  </si>
-  <si>
-    <t>dolakha</t>
-  </si>
-  <si>
-    <t>Dolakha</t>
-  </si>
-  <si>
-    <t>bhaktapur</t>
-  </si>
-  <si>
-    <t>Bhaktapur</t>
-  </si>
-  <si>
     <t>lmp_approximations</t>
   </si>
   <si>
@@ -485,90 +296,24 @@
     <t>Other Nationality</t>
   </si>
   <si>
-    <t>dhading</t>
-  </si>
-  <si>
-    <t>Dhading</t>
-  </si>
-  <si>
     <t>upto_3_months_ago</t>
   </si>
   <si>
     <t>Upto 3 Months Ago</t>
   </si>
   <si>
-    <t>kathmandu</t>
-  </si>
-  <si>
-    <t>Kathmandu</t>
-  </si>
-  <si>
-    <t>kavrepalanchok</t>
-  </si>
-  <si>
-    <t>Kavrepalanchok</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
-    <t>lalitpur</t>
-  </si>
-  <si>
-    <t>Lalitpur</t>
-  </si>
-  <si>
-    <t>nuwakot</t>
-  </si>
-  <si>
-    <t>Nuwakot</t>
-  </si>
-  <si>
-    <t>rasuwa</t>
-  </si>
-  <si>
-    <t>Rasuwa</t>
-  </si>
-  <si>
-    <t>sindhupalchok</t>
-  </si>
-  <si>
-    <t>Sindhupalchok</t>
-  </si>
-  <si>
-    <t>chitwan</t>
-  </si>
-  <si>
-    <t>Chitwan</t>
-  </si>
-  <si>
-    <t>makwanpur</t>
-  </si>
-  <si>
-    <t>Makwanpur</t>
-  </si>
-  <si>
     <t>upto_4_months_ago</t>
   </si>
   <si>
     <t>Upto 4 Months Ago</t>
   </si>
   <si>
-    <t>baglung</t>
-  </si>
-  <si>
-    <t>Baglung</t>
-  </si>
-  <si>
-    <t>gorkha</t>
-  </si>
-  <si>
     <t>between_5_and_6_months_ago</t>
   </si>
   <si>
-    <t>Gorkha</t>
-  </si>
-  <si>
     <t>Between 5 And 6 Months Ago</t>
   </si>
   <si>
@@ -611,87 +356,21 @@
     <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
   </si>
   <si>
-    <t>kaski</t>
-  </si>
-  <si>
-    <t>Kaski</t>
-  </si>
-  <si>
     <t>develop_birth_plan</t>
   </si>
   <si>
     <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
-    <t>lamjung</t>
-  </si>
-  <si>
-    <t>Lamjung</t>
-  </si>
-  <si>
-    <t>manang</t>
-  </si>
-  <si>
-    <t>Manang</t>
-  </si>
-  <si>
-    <t>mustang</t>
-  </si>
-  <si>
-    <t>Mustang</t>
-  </si>
-  <si>
     <t>trimester2_choices</t>
   </si>
   <si>
-    <t>myagdi</t>
-  </si>
-  <si>
-    <t>Myagdi</t>
-  </si>
-  <si>
-    <t>nawalpur</t>
-  </si>
-  <si>
-    <t>Nawalpur</t>
-  </si>
-  <si>
-    <t>parbat</t>
-  </si>
-  <si>
-    <t>Parbat</t>
-  </si>
-  <si>
     <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
     <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
-    <t>syangja</t>
-  </si>
-  <si>
-    <t>Syangja</t>
-  </si>
-  <si>
-    <t>tanahun</t>
-  </si>
-  <si>
-    <t>Tanahun</t>
-  </si>
-  <si>
-    <t>kapilvastu</t>
-  </si>
-  <si>
-    <t>Kapilvastu</t>
-  </si>
-  <si>
-    <t>parasi</t>
-  </si>
-  <si>
-    <t>Parasi</t>
-  </si>
-  <si>
     <t>conditions</t>
   </si>
   <si>
@@ -701,222 +380,48 @@
     <t>Heart condition</t>
   </si>
   <si>
-    <t>rupandehi</t>
-  </si>
-  <si>
-    <t>Rupandehi</t>
-  </si>
-  <si>
     <t>asthma</t>
   </si>
   <si>
     <t>Asthma</t>
   </si>
   <si>
-    <t>arghakhanchi</t>
-  </si>
-  <si>
-    <t>Arghakhanchi</t>
-  </si>
-  <si>
-    <t>gulmi</t>
-  </si>
-  <si>
-    <t>Gulmi</t>
-  </si>
-  <si>
-    <t>palpa</t>
-  </si>
-  <si>
-    <t>Palpa</t>
-  </si>
-  <si>
     <t>high_blood_pressure</t>
   </si>
   <si>
     <t>High blood pressure</t>
   </si>
   <si>
-    <t>dang</t>
-  </si>
-  <si>
-    <t>Dang</t>
-  </si>
-  <si>
-    <t>pyuthan</t>
-  </si>
-  <si>
-    <t>Pyuthan</t>
-  </si>
-  <si>
-    <t>rolpa</t>
-  </si>
-  <si>
-    <t>Rolpa</t>
-  </si>
-  <si>
     <t>known_diabetes</t>
   </si>
   <si>
     <t>Known diabetes</t>
   </si>
   <si>
-    <t>rukum_e</t>
-  </si>
-  <si>
-    <t>Rukum East</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
-    <t>banke</t>
-  </si>
-  <si>
-    <t>Banke</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>bardiya</t>
-  </si>
-  <si>
-    <t>Bardiya</t>
-  </si>
-  <si>
-    <t>rukum_w</t>
-  </si>
-  <si>
-    <t>Rukum West</t>
-  </si>
-  <si>
-    <t>salyan</t>
-  </si>
-  <si>
-    <t>Salyan</t>
-  </si>
-  <si>
-    <t>dolpa</t>
-  </si>
-  <si>
-    <t>Dolpa</t>
-  </si>
-  <si>
-    <t>humla</t>
-  </si>
-  <si>
-    <t>Humla</t>
-  </si>
-  <si>
     <t>hiv_statuses</t>
   </si>
   <si>
     <t>patient_uuid</t>
   </si>
   <si>
-    <t>jumla</t>
-  </si>
-  <si>
-    <t>Jumla</t>
-  </si>
-  <si>
     <t>known</t>
   </si>
   <si>
-    <t>kalikot</t>
-  </si>
-  <si>
-    <t>Kalikot</t>
-  </si>
-  <si>
-    <t>mugu</t>
-  </si>
-  <si>
-    <t>Mugu</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>surkhet</t>
-  </si>
-  <si>
-    <t>Surkhet</t>
-  </si>
-  <si>
-    <t>dailekh</t>
-  </si>
-  <si>
-    <t>Dailekh</t>
-  </si>
-  <si>
-    <t>jajarkot</t>
-  </si>
-  <si>
-    <t>Jajarkot</t>
-  </si>
-  <si>
-    <t>kailali</t>
-  </si>
-  <si>
-    <t>Kailali</t>
-  </si>
-  <si>
-    <t>achham</t>
-  </si>
-  <si>
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>Achham</t>
-  </si>
-  <si>
     <t>fp_methods</t>
   </si>
   <si>
-    <t>doti</t>
-  </si>
-  <si>
-    <t>Doti</t>
-  </si>
-  <si>
-    <t>bajhang</t>
-  </si>
-  <si>
-    <t>Bajhang</t>
-  </si>
-  <si>
-    <t>bajura</t>
-  </si>
-  <si>
-    <t>Bajura</t>
-  </si>
-  <si>
-    <t>kanchanpur</t>
-  </si>
-  <si>
-    <t>Kanchanpur</t>
-  </si>
-  <si>
-    <t>dadeldhura</t>
-  </si>
-  <si>
-    <t>Dadeldhura</t>
-  </si>
-  <si>
-    <t>baitadi</t>
-  </si>
-  <si>
-    <t>Baitadi</t>
-  </si>
-  <si>
-    <t>darchula</t>
-  </si>
-  <si>
-    <t>Darchula</t>
-  </si>
-  <si>
     <t>Combined oral contraceptives</t>
   </si>
   <si>
@@ -1398,12 +903,24 @@
   </si>
   <si>
     <t>Autres lieux</t>
+  </si>
+  <si>
+    <t>lgh</t>
+  </si>
+  <si>
+    <t>Luisa Guidotti Hospital</t>
+  </si>
+  <si>
+    <t>lgh_residence</t>
+  </si>
+  <si>
+    <t>Luisa Guidotti Residence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
@@ -1699,6 +1216,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1966,36 +1486,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23:D65"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="4" width="43.33203125" customWidth="1"/>
-    <col min="5" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="53.83203125" customWidth="1"/>
-    <col min="8" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" customWidth="1"/>
-    <col min="12" max="12" width="73.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="4" width="43.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" customWidth="1"/>
+    <col min="8" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="73.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="28" width="29.83203125" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="28" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2006,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>16</v>
@@ -2065,7 +1585,7 @@
       <c r="AA1" s="16"/>
       <c r="AB1" s="16"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>36</v>
       </c>
@@ -2079,10 +1599,10 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -2105,15 +1625,15 @@
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>54</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="23"/>
@@ -2127,7 +1647,7 @@
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
       <c r="O3" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
@@ -2143,15 +1663,15 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="23"/>
@@ -2179,12 +1699,12 @@
       <c r="AA4" s="25"/>
       <c r="AB4" s="25"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>39</v>
@@ -2215,22 +1735,22 @@
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -2253,15 +1773,15 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="23"/>
@@ -2289,15 +1809,15 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="23"/>
@@ -2325,15 +1845,15 @@
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -2361,12 +1881,12 @@
       <c r="AA9" s="30"/>
       <c r="AB9" s="30"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>39</v>
@@ -2397,15 +1917,15 @@
       <c r="AA10" s="30"/>
       <c r="AB10" s="30"/>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -2433,15 +1953,15 @@
       <c r="AA11" s="30"/>
       <c r="AB11" s="30"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2469,15 +1989,15 @@
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
@@ -2505,15 +2025,15 @@
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
@@ -2541,9 +2061,9 @@
       <c r="AA14" s="30"/>
       <c r="AB14" s="30"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="30"/>
@@ -2573,12 +2093,12 @@
       <c r="AA15" s="30"/>
       <c r="AB15" s="30"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="38"/>
@@ -2607,9 +2127,9 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>38</v>
@@ -2630,7 +2150,7 @@
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S17" s="23"/>
       <c r="T17" s="25"/>
@@ -2643,7 +2163,7 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -2673,12 +2193,12 @@
       <c r="AA18" s="41"/>
       <c r="AB18" s="41"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>39</v>
@@ -2692,7 +2212,7 @@
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43" t="s">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -2711,12 +2231,12 @@
       <c r="AA19" s="45"/>
       <c r="AB19" s="45"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>39</v>
@@ -2730,7 +2250,7 @@
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
       <c r="L20" s="44" t="s">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -2749,12 +2269,12 @@
       <c r="AA20" s="45"/>
       <c r="AB20" s="45"/>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>39</v>
@@ -2768,7 +2288,7 @@
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
       <c r="L21" s="44" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
@@ -2787,7 +2307,7 @@
       <c r="AA21" s="45"/>
       <c r="AB21" s="45"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -2817,18 +2337,18 @@
       <c r="AA22" s="49"/>
       <c r="AB22" s="49"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>442</v>
+        <v>277</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
@@ -2841,7 +2361,7 @@
       <c r="M23" s="52"/>
       <c r="N23" s="52"/>
       <c r="O23" s="51" t="s">
-        <v>354</v>
+        <v>189</v>
       </c>
       <c r="P23" s="52"/>
       <c r="Q23" s="52"/>
@@ -2857,24 +2377,24 @@
       <c r="AA23" s="54"/>
       <c r="AB23" s="54"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>356</v>
+        <v>191</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>447</v>
+        <v>282</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="53"/>
       <c r="H24" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" s="51"/>
       <c r="J24" s="52"/>
@@ -2897,18 +2417,18 @@
       <c r="AA24" s="54"/>
       <c r="AB24" s="54"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>357</v>
+        <v>192</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>358</v>
+        <v>193</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>359</v>
+        <v>194</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>422</v>
+        <v>257</v>
       </c>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
@@ -2935,18 +2455,18 @@
       <c r="AA25" s="57"/>
       <c r="AB25" s="57"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>362</v>
+        <v>197</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>363</v>
+        <v>198</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>423</v>
+        <v>258</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
@@ -2973,18 +2493,18 @@
       <c r="AA26" s="54"/>
       <c r="AB26" s="54"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>364</v>
+        <v>199</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>365</v>
+        <v>200</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>424</v>
+        <v>259</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
@@ -3011,18 +2531,18 @@
       <c r="AA27" s="54"/>
       <c r="AB27" s="54"/>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>366</v>
+        <v>201</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>367</v>
+        <v>202</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>425</v>
+        <v>260</v>
       </c>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
@@ -3049,18 +2569,18 @@
       <c r="AA28" s="57"/>
       <c r="AB28" s="57"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
-        <v>368</v>
+        <v>203</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>369</v>
+        <v>204</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>426</v>
+        <v>261</v>
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
@@ -3087,18 +2607,18 @@
       <c r="AA29" s="57"/>
       <c r="AB29" s="57"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="C30" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>427</v>
+        <v>262</v>
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
@@ -3125,9 +2645,9 @@
       <c r="AA30" s="57"/>
       <c r="AB30" s="57"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>372</v>
+        <v>207</v>
       </c>
       <c r="B31" s="58"/>
       <c r="C31" s="52"/>
@@ -3157,9 +2677,9 @@
       <c r="AA31" s="57"/>
       <c r="AB31" s="57"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="B32" s="58"/>
       <c r="C32" s="52"/>
@@ -3189,7 +2709,7 @@
       <c r="AA32" s="57"/>
       <c r="AB32" s="57"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="58"/>
       <c r="B33" s="58"/>
       <c r="C33" s="52"/>
@@ -3219,24 +2739,24 @@
       <c r="AA33" s="57"/>
       <c r="AB33" s="57"/>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>373</v>
+        <v>208</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>374</v>
+        <v>209</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>428</v>
+        <v>263</v>
       </c>
       <c r="E34" s="52"/>
       <c r="F34" s="52"/>
       <c r="G34" s="53"/>
       <c r="H34" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" s="51"/>
       <c r="J34" s="52"/>
@@ -3259,18 +2779,18 @@
       <c r="AA34" s="54"/>
       <c r="AB34" s="54"/>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
-        <v>375</v>
+        <v>210</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>376</v>
+        <v>211</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>377</v>
+        <v>212</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>429</v>
+        <v>264</v>
       </c>
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
@@ -3297,23 +2817,23 @@
       <c r="AA35" s="57"/>
       <c r="AB35" s="57"/>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>379</v>
+        <v>214</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>430</v>
+        <v>265</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
       <c r="G36" s="51" t="s">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="H36" s="52"/>
       <c r="I36" s="51"/>
@@ -3337,23 +2857,23 @@
       <c r="AA36" s="57"/>
       <c r="AB36" s="57"/>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>381</v>
+        <v>216</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>382</v>
+        <v>217</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>431</v>
+        <v>266</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
       <c r="G37" s="51" t="s">
-        <v>383</v>
+        <v>218</v>
       </c>
       <c r="H37" s="52"/>
       <c r="I37" s="52"/>
@@ -3377,24 +2897,24 @@
       <c r="AA37" s="57"/>
       <c r="AB37" s="57"/>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50" t="s">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="B38" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>385</v>
+        <v>220</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>385</v>
+        <v>220</v>
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="52"/>
       <c r="G38" s="51"/>
       <c r="H38" s="51" t="s">
-        <v>386</v>
+        <v>221</v>
       </c>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
@@ -3417,31 +2937,31 @@
       <c r="AA38" s="57"/>
       <c r="AB38" s="57"/>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="50" t="s">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>388</v>
+        <v>223</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="D39" s="57" t="s">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="E39" s="52"/>
       <c r="F39" s="52"/>
       <c r="G39" s="51"/>
       <c r="H39" s="51" t="s">
-        <v>386</v>
+        <v>221</v>
       </c>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
       <c r="L39" s="53"/>
       <c r="M39" s="51" t="s">
-        <v>390</v>
+        <v>225</v>
       </c>
       <c r="N39" s="52"/>
       <c r="O39" s="52"/>
@@ -3459,18 +2979,18 @@
       <c r="AA39" s="57"/>
       <c r="AB39" s="57"/>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>392</v>
+        <v>227</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>432</v>
+        <v>267</v>
       </c>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
@@ -3497,18 +3017,18 @@
       <c r="AA40" s="57"/>
       <c r="AB40" s="57"/>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50" t="s">
-        <v>393</v>
+        <v>228</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>394</v>
+        <v>229</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>395</v>
+        <v>230</v>
       </c>
       <c r="D41" s="57" t="s">
-        <v>433</v>
+        <v>268</v>
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
@@ -3535,18 +3055,18 @@
       <c r="AA41" s="57"/>
       <c r="AB41" s="57"/>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>396</v>
+        <v>231</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>397</v>
+        <v>232</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>448</v>
+        <v>283</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
@@ -3573,18 +3093,18 @@
       <c r="AA42" s="57"/>
       <c r="AB42" s="57"/>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
-        <v>398</v>
+        <v>233</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>399</v>
+        <v>234</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>400</v>
+        <v>235</v>
       </c>
       <c r="D43" s="57" t="s">
-        <v>434</v>
+        <v>269</v>
       </c>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
@@ -3611,18 +3131,18 @@
       <c r="AA43" s="57"/>
       <c r="AB43" s="57"/>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
-        <v>398</v>
+        <v>233</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>401</v>
+        <v>236</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>402</v>
+        <v>237</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>449</v>
+        <v>284</v>
       </c>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
@@ -3649,18 +3169,18 @@
       <c r="AA44" s="57"/>
       <c r="AB44" s="57"/>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50" t="s">
-        <v>368</v>
+        <v>203</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>403</v>
+        <v>238</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>404</v>
+        <v>239</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>450</v>
+        <v>285</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="52"/>
@@ -3687,18 +3207,18 @@
       <c r="AA45" s="57"/>
       <c r="AB45" s="57"/>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B46" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>435</v>
+        <v>270</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="52"/>
@@ -3725,18 +3245,18 @@
       <c r="AA46" s="57"/>
       <c r="AB46" s="57"/>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
-        <v>398</v>
+        <v>233</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>405</v>
+        <v>240</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>402</v>
+        <v>237</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>449</v>
+        <v>284</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="52"/>
@@ -3763,9 +3283,9 @@
       <c r="AA47" s="57"/>
       <c r="AB47" s="57"/>
     </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
-        <v>372</v>
+        <v>207</v>
       </c>
       <c r="B48" s="58"/>
       <c r="C48" s="52"/>
@@ -3795,9 +3315,9 @@
       <c r="AA48" s="57"/>
       <c r="AB48" s="57"/>
     </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="B49" s="58"/>
       <c r="C49" s="52"/>
@@ -3827,7 +3347,7 @@
       <c r="AA49" s="57"/>
       <c r="AB49" s="57"/>
     </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
       <c r="B50" s="59"/>
       <c r="C50" s="53"/>
@@ -3857,24 +3377,24 @@
       <c r="AA50" s="60"/>
       <c r="AB50" s="60"/>
     </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>406</v>
+        <v>241</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>407</v>
+        <v>242</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>436</v>
+        <v>271</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
       <c r="G51" s="53"/>
       <c r="H51" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I51" s="51"/>
       <c r="J51" s="52"/>
@@ -3897,18 +3417,18 @@
       <c r="AA51" s="60"/>
       <c r="AB51" s="60"/>
     </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
-        <v>368</v>
+        <v>203</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>403</v>
+        <v>238</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>427</v>
+        <v>262</v>
       </c>
       <c r="E52" s="52"/>
       <c r="F52" s="52"/>
@@ -3935,18 +3455,18 @@
       <c r="AA52" s="57"/>
       <c r="AB52" s="57"/>
     </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B53" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="57" t="s">
-        <v>435</v>
+        <v>270</v>
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="52"/>
@@ -3973,18 +3493,18 @@
       <c r="AA53" s="57"/>
       <c r="AB53" s="57"/>
     </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
-        <v>398</v>
+        <v>233</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>405</v>
+        <v>240</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>402</v>
+        <v>237</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>449</v>
+        <v>284</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="52"/>
@@ -4011,18 +3531,18 @@
       <c r="AA54" s="57"/>
       <c r="AB54" s="57"/>
     </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>408</v>
+        <v>243</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>409</v>
+        <v>244</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>451</v>
+        <v>286</v>
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
@@ -4049,9 +3569,9 @@
       <c r="AA55" s="57"/>
       <c r="AB55" s="57"/>
     </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="50" t="s">
-        <v>372</v>
+        <v>207</v>
       </c>
       <c r="B56" s="58"/>
       <c r="C56" s="52"/>
@@ -4081,9 +3601,9 @@
       <c r="AA56" s="57"/>
       <c r="AB56" s="57"/>
     </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="B57" s="50"/>
       <c r="C57" s="51"/>
@@ -4113,7 +3633,7 @@
       <c r="AA57" s="60"/>
       <c r="AB57" s="60"/>
     </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="50"/>
       <c r="B58" s="50"/>
       <c r="C58" s="51"/>
@@ -4143,24 +3663,24 @@
       <c r="AA58" s="60"/>
       <c r="AB58" s="60"/>
     </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>410</v>
+        <v>245</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>411</v>
+        <v>246</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>452</v>
+        <v>287</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
       <c r="G59" s="53"/>
       <c r="H59" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I59" s="51"/>
       <c r="J59" s="52"/>
@@ -4183,18 +3703,18 @@
       <c r="AA59" s="60"/>
       <c r="AB59" s="60"/>
     </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>412</v>
+        <v>247</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="D60" s="57" t="s">
-        <v>437</v>
+        <v>272</v>
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="52"/>
@@ -4221,18 +3741,18 @@
       <c r="AA60" s="60"/>
       <c r="AB60" s="60"/>
     </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>415</v>
+        <v>250</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>438</v>
+        <v>273</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
@@ -4259,18 +3779,18 @@
       <c r="AA61" s="60"/>
       <c r="AB61" s="60"/>
     </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>416</v>
+        <v>251</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>417</v>
+        <v>252</v>
       </c>
       <c r="D62" s="57" t="s">
-        <v>439</v>
+        <v>274</v>
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
@@ -4297,18 +3817,18 @@
       <c r="AA62" s="60"/>
       <c r="AB62" s="60"/>
     </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>418</v>
+        <v>253</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>419</v>
+        <v>254</v>
       </c>
       <c r="D63" s="57" t="s">
-        <v>440</v>
+        <v>275</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="52"/>
@@ -4335,18 +3855,18 @@
       <c r="AA63" s="60"/>
       <c r="AB63" s="60"/>
     </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>420</v>
+        <v>255</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>421</v>
+        <v>256</v>
       </c>
       <c r="D64" s="57" t="s">
-        <v>441</v>
+        <v>276</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
@@ -4373,18 +3893,18 @@
       <c r="AA64" s="60"/>
       <c r="AB64" s="60"/>
     </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="50" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>388</v>
+        <v>223</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
@@ -4411,9 +3931,9 @@
       <c r="AA65" s="60"/>
       <c r="AB65" s="60"/>
     </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="50" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="B66" s="50"/>
       <c r="C66" s="51"/>
@@ -4455,23 +3975,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q258"/>
+  <dimension ref="A1:Q259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="17" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="17" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4482,7 +4002,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -4500,7 +4020,7 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -4511,7 +4031,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>278</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -4527,7 +4047,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
@@ -4538,10 +4058,10 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -4552,7 +4072,7 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>280</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -4568,7 +4088,7 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -4579,7 +4099,7 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>453</v>
+        <v>288</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -4595,2284 +4115,1469 @@
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>48</v>
+        <v>291</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C9" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="24">
-        <v>1</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="24">
-        <v>2</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="24">
-        <v>3</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="24">
-        <v>4</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="24">
-        <v>5</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="24">
-        <v>6</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="24">
-        <v>7</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E52" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E54" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E56" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E57" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E59" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E60" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E63" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E64" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E65" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E66" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E67" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E68" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E69" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E70" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E71" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E72" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E73" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E74" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E75" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E76" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E77" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E78" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E79" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E80" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E81" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E82" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E83" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E84" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E85" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E86" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E87" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E88" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E89" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C90" s="5" t="s">
+      <c r="D9" t="s">
         <v>290</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E90" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E91" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E92" s="21">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="48"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="48"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="48"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="48"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="48"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="48"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="21"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="21"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="21"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="21"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="21"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="21"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="21"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="21"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="21"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="21"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="21"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="21"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="21"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="21"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="21"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="21"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="21"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="21"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="21"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="21"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="21"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="47"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="21"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="21"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="47"/>
       <c r="C94" s="48"/>
       <c r="D94" s="48"/>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="47"/>
       <c r="C95" s="48"/>
       <c r="D95" s="48"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="47"/>
       <c r="C96" s="48"/>
       <c r="D96" s="48"/>
     </row>
-    <row r="97" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="47"/>
       <c r="C97" s="48"/>
       <c r="D97" s="48"/>
     </row>
-    <row r="98" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="47"/>
       <c r="C98" s="48"/>
       <c r="D98" s="48"/>
     </row>
-    <row r="99" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="47"/>
       <c r="C99" s="48"/>
       <c r="D99" s="48"/>
     </row>
-    <row r="100" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="47"/>
       <c r="C100" s="48"/>
       <c r="D100" s="48"/>
     </row>
-    <row r="101" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="47"/>
       <c r="C101" s="48"/>
       <c r="D101" s="48"/>
     </row>
-    <row r="102" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="47"/>
       <c r="C102" s="48"/>
       <c r="D102" s="48"/>
     </row>
-    <row r="103" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="47"/>
       <c r="C103" s="48"/>
       <c r="D103" s="48"/>
     </row>
-    <row r="104" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="47"/>
       <c r="C104" s="48"/>
       <c r="D104" s="48"/>
     </row>
-    <row r="105" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="47"/>
       <c r="C105" s="48"/>
       <c r="D105" s="48"/>
     </row>
-    <row r="106" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="47"/>
       <c r="C106" s="48"/>
       <c r="D106" s="48"/>
     </row>
-    <row r="107" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="47"/>
       <c r="C107" s="48"/>
       <c r="D107" s="48"/>
     </row>
-    <row r="108" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="47"/>
       <c r="C108" s="48"/>
       <c r="D108" s="48"/>
     </row>
-    <row r="109" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="47"/>
       <c r="C109" s="48"/>
       <c r="D109" s="48"/>
     </row>
-    <row r="110" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="47"/>
       <c r="C110" s="48"/>
       <c r="D110" s="48"/>
     </row>
-    <row r="111" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="47"/>
       <c r="C111" s="48"/>
       <c r="D111" s="48"/>
     </row>
-    <row r="112" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="47"/>
       <c r="C112" s="48"/>
       <c r="D112" s="48"/>
     </row>
-    <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="47"/>
       <c r="C113" s="48"/>
       <c r="D113" s="48"/>
     </row>
-    <row r="114" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="47"/>
       <c r="C114" s="48"/>
       <c r="D114" s="48"/>
     </row>
-    <row r="115" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="47"/>
       <c r="C115" s="48"/>
       <c r="D115" s="48"/>
     </row>
-    <row r="116" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="47"/>
       <c r="C116" s="48"/>
       <c r="D116" s="48"/>
     </row>
-    <row r="117" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="47"/>
       <c r="C117" s="48"/>
       <c r="D117" s="48"/>
     </row>
-    <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="47"/>
       <c r="C118" s="48"/>
       <c r="D118" s="48"/>
     </row>
-    <row r="119" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="47"/>
       <c r="C119" s="48"/>
       <c r="D119" s="48"/>
     </row>
-    <row r="120" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="47"/>
       <c r="C120" s="48"/>
       <c r="D120" s="48"/>
     </row>
-    <row r="121" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="47"/>
       <c r="C121" s="48"/>
       <c r="D121" s="48"/>
     </row>
-    <row r="122" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="47"/>
       <c r="C122" s="48"/>
       <c r="D122" s="48"/>
     </row>
-    <row r="123" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="47"/>
       <c r="C123" s="48"/>
       <c r="D123" s="48"/>
     </row>
-    <row r="124" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="47"/>
       <c r="C124" s="48"/>
       <c r="D124" s="48"/>
     </row>
-    <row r="125" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="47"/>
       <c r="C125" s="48"/>
       <c r="D125" s="48"/>
     </row>
-    <row r="126" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="47"/>
       <c r="C126" s="48"/>
       <c r="D126" s="48"/>
     </row>
-    <row r="127" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="47"/>
       <c r="C127" s="48"/>
       <c r="D127" s="48"/>
     </row>
-    <row r="128" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="47"/>
       <c r="C128" s="48"/>
       <c r="D128" s="48"/>
     </row>
-    <row r="129" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="47"/>
       <c r="C129" s="48"/>
       <c r="D129" s="48"/>
     </row>
-    <row r="130" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="47"/>
       <c r="C130" s="48"/>
       <c r="D130" s="48"/>
     </row>
-    <row r="131" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="47"/>
       <c r="C131" s="48"/>
       <c r="D131" s="48"/>
     </row>
-    <row r="132" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="47"/>
       <c r="C132" s="48"/>
       <c r="D132" s="48"/>
     </row>
-    <row r="133" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="47"/>
       <c r="C133" s="48"/>
       <c r="D133" s="48"/>
     </row>
-    <row r="134" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="47"/>
       <c r="C134" s="48"/>
       <c r="D134" s="48"/>
     </row>
-    <row r="135" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="47"/>
       <c r="C135" s="48"/>
       <c r="D135" s="48"/>
     </row>
-    <row r="136" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="47"/>
       <c r="C136" s="48"/>
       <c r="D136" s="48"/>
     </row>
-    <row r="137" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="47"/>
       <c r="C137" s="48"/>
       <c r="D137" s="48"/>
     </row>
-    <row r="138" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="47"/>
       <c r="C138" s="48"/>
       <c r="D138" s="48"/>
     </row>
-    <row r="139" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="47"/>
       <c r="C139" s="48"/>
       <c r="D139" s="48"/>
     </row>
-    <row r="140" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="47"/>
       <c r="C140" s="48"/>
       <c r="D140" s="48"/>
     </row>
-    <row r="141" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="47"/>
       <c r="C141" s="48"/>
       <c r="D141" s="48"/>
     </row>
-    <row r="142" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="47"/>
       <c r="C142" s="48"/>
       <c r="D142" s="48"/>
     </row>
-    <row r="143" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="47"/>
       <c r="C143" s="48"/>
       <c r="D143" s="48"/>
     </row>
-    <row r="144" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="47"/>
       <c r="C144" s="48"/>
       <c r="D144" s="48"/>
     </row>
-    <row r="145" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="47"/>
       <c r="C145" s="48"/>
       <c r="D145" s="48"/>
     </row>
-    <row r="146" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="47"/>
       <c r="C146" s="48"/>
       <c r="D146" s="48"/>
     </row>
-    <row r="147" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="47"/>
       <c r="C147" s="48"/>
       <c r="D147" s="48"/>
     </row>
-    <row r="148" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="47"/>
       <c r="C148" s="48"/>
       <c r="D148" s="48"/>
     </row>
-    <row r="149" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="47"/>
       <c r="C149" s="48"/>
       <c r="D149" s="48"/>
     </row>
-    <row r="150" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="47"/>
       <c r="C150" s="48"/>
       <c r="D150" s="48"/>
     </row>
-    <row r="151" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="47"/>
       <c r="C151" s="48"/>
       <c r="D151" s="48"/>
     </row>
-    <row r="152" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="47"/>
       <c r="C152" s="48"/>
       <c r="D152" s="48"/>
     </row>
-    <row r="153" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="47"/>
       <c r="C153" s="48"/>
       <c r="D153" s="48"/>
     </row>
-    <row r="154" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="47"/>
       <c r="C154" s="48"/>
       <c r="D154" s="48"/>
     </row>
-    <row r="155" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="47"/>
       <c r="C155" s="48"/>
       <c r="D155" s="48"/>
     </row>
-    <row r="156" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="47"/>
       <c r="C156" s="48"/>
       <c r="D156" s="48"/>
     </row>
-    <row r="157" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="47"/>
       <c r="C157" s="48"/>
       <c r="D157" s="48"/>
     </row>
-    <row r="158" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="47"/>
       <c r="C158" s="48"/>
       <c r="D158" s="48"/>
     </row>
-    <row r="159" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="47"/>
       <c r="C159" s="48"/>
       <c r="D159" s="48"/>
     </row>
-    <row r="160" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="47"/>
       <c r="C160" s="48"/>
       <c r="D160" s="48"/>
     </row>
-    <row r="161" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="47"/>
       <c r="C161" s="48"/>
       <c r="D161" s="48"/>
     </row>
-    <row r="162" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="47"/>
       <c r="C162" s="48"/>
       <c r="D162" s="48"/>
     </row>
-    <row r="163" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="47"/>
       <c r="C163" s="48"/>
       <c r="D163" s="48"/>
     </row>
-    <row r="164" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="47"/>
       <c r="C164" s="48"/>
       <c r="D164" s="48"/>
     </row>
-    <row r="165" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="47"/>
       <c r="C165" s="48"/>
       <c r="D165" s="48"/>
     </row>
-    <row r="166" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="47"/>
       <c r="C166" s="48"/>
       <c r="D166" s="48"/>
     </row>
-    <row r="167" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="47"/>
       <c r="C167" s="48"/>
       <c r="D167" s="48"/>
     </row>
-    <row r="168" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="47"/>
       <c r="C168" s="48"/>
       <c r="D168" s="48"/>
     </row>
-    <row r="169" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="47"/>
       <c r="C169" s="48"/>
       <c r="D169" s="48"/>
     </row>
-    <row r="170" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="47"/>
       <c r="C170" s="48"/>
       <c r="D170" s="48"/>
     </row>
-    <row r="171" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="47"/>
       <c r="C171" s="48"/>
       <c r="D171" s="48"/>
     </row>
-    <row r="172" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="47"/>
       <c r="C172" s="48"/>
       <c r="D172" s="48"/>
     </row>
-    <row r="173" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="47"/>
       <c r="C173" s="48"/>
       <c r="D173" s="48"/>
     </row>
-    <row r="174" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="47"/>
       <c r="C174" s="48"/>
       <c r="D174" s="48"/>
     </row>
-    <row r="175" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="47"/>
       <c r="C175" s="48"/>
       <c r="D175" s="48"/>
     </row>
-    <row r="176" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="47"/>
       <c r="C176" s="48"/>
       <c r="D176" s="48"/>
     </row>
-    <row r="177" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="47"/>
       <c r="C177" s="48"/>
       <c r="D177" s="48"/>
     </row>
-    <row r="178" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="47"/>
       <c r="C178" s="48"/>
       <c r="D178" s="48"/>
     </row>
-    <row r="179" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="47"/>
       <c r="C179" s="48"/>
       <c r="D179" s="48"/>
     </row>
-    <row r="180" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="47"/>
       <c r="C180" s="48"/>
       <c r="D180" s="48"/>
     </row>
-    <row r="181" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="47"/>
       <c r="C181" s="48"/>
       <c r="D181" s="48"/>
     </row>
-    <row r="182" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="47"/>
       <c r="C182" s="48"/>
       <c r="D182" s="48"/>
     </row>
-    <row r="183" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="47"/>
       <c r="C183" s="48"/>
       <c r="D183" s="48"/>
     </row>
-    <row r="184" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="47"/>
       <c r="C184" s="48"/>
       <c r="D184" s="48"/>
     </row>
-    <row r="185" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="47"/>
       <c r="C185" s="48"/>
       <c r="D185" s="48"/>
     </row>
-    <row r="186" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="47"/>
       <c r="C186" s="48"/>
       <c r="D186" s="48"/>
     </row>
-    <row r="187" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="47"/>
       <c r="C187" s="48"/>
       <c r="D187" s="48"/>
     </row>
-    <row r="188" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="47"/>
       <c r="C188" s="48"/>
       <c r="D188" s="48"/>
     </row>
-    <row r="189" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="47"/>
       <c r="C189" s="48"/>
       <c r="D189" s="48"/>
     </row>
-    <row r="190" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="47"/>
       <c r="C190" s="48"/>
       <c r="D190" s="48"/>
     </row>
-    <row r="191" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="47"/>
       <c r="C191" s="48"/>
       <c r="D191" s="48"/>
     </row>
-    <row r="192" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="47"/>
       <c r="C192" s="48"/>
       <c r="D192" s="48"/>
     </row>
-    <row r="193" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="47"/>
       <c r="C193" s="48"/>
       <c r="D193" s="48"/>
     </row>
-    <row r="194" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="47"/>
       <c r="C194" s="48"/>
       <c r="D194" s="48"/>
     </row>
-    <row r="195" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="47"/>
       <c r="C195" s="48"/>
       <c r="D195" s="48"/>
     </row>
-    <row r="196" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="47"/>
       <c r="C196" s="48"/>
       <c r="D196" s="48"/>
     </row>
-    <row r="197" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="47"/>
       <c r="C197" s="48"/>
       <c r="D197" s="48"/>
     </row>
-    <row r="198" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="47"/>
       <c r="C198" s="48"/>
       <c r="D198" s="48"/>
     </row>
-    <row r="199" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="47"/>
       <c r="C199" s="48"/>
       <c r="D199" s="48"/>
     </row>
-    <row r="200" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="47"/>
       <c r="C200" s="48"/>
       <c r="D200" s="48"/>
     </row>
-    <row r="201" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="47"/>
       <c r="C201" s="48"/>
       <c r="D201" s="48"/>
     </row>
-    <row r="202" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="47"/>
       <c r="C202" s="48"/>
       <c r="D202" s="48"/>
     </row>
-    <row r="203" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="47"/>
       <c r="C203" s="48"/>
       <c r="D203" s="48"/>
     </row>
-    <row r="204" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="47"/>
       <c r="C204" s="48"/>
       <c r="D204" s="48"/>
     </row>
-    <row r="205" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="47"/>
       <c r="C205" s="48"/>
       <c r="D205" s="48"/>
     </row>
-    <row r="206" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="47"/>
       <c r="C206" s="48"/>
       <c r="D206" s="48"/>
     </row>
-    <row r="207" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="47"/>
       <c r="C207" s="48"/>
       <c r="D207" s="48"/>
     </row>
-    <row r="208" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="47"/>
       <c r="C208" s="48"/>
       <c r="D208" s="48"/>
     </row>
-    <row r="209" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="47"/>
       <c r="C209" s="48"/>
       <c r="D209" s="48"/>
     </row>
-    <row r="210" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="47"/>
       <c r="C210" s="48"/>
       <c r="D210" s="48"/>
     </row>
-    <row r="211" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="47"/>
       <c r="C211" s="48"/>
       <c r="D211" s="48"/>
     </row>
-    <row r="212" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="47"/>
       <c r="C212" s="48"/>
       <c r="D212" s="48"/>
     </row>
-    <row r="213" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="47"/>
       <c r="C213" s="48"/>
       <c r="D213" s="48"/>
     </row>
-    <row r="214" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="47"/>
       <c r="C214" s="48"/>
       <c r="D214" s="48"/>
     </row>
-    <row r="215" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="47"/>
       <c r="C215" s="48"/>
       <c r="D215" s="48"/>
     </row>
-    <row r="216" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="47"/>
       <c r="C216" s="48"/>
       <c r="D216" s="48"/>
     </row>
-    <row r="217" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="47"/>
       <c r="C217" s="48"/>
       <c r="D217" s="48"/>
     </row>
-    <row r="218" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="47"/>
       <c r="C218" s="48"/>
       <c r="D218" s="48"/>
     </row>
-    <row r="219" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="47"/>
       <c r="C219" s="48"/>
       <c r="D219" s="48"/>
     </row>
-    <row r="220" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="47"/>
       <c r="C220" s="48"/>
       <c r="D220" s="48"/>
     </row>
-    <row r="221" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="47"/>
       <c r="C221" s="48"/>
       <c r="D221" s="48"/>
     </row>
-    <row r="222" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="47"/>
       <c r="C222" s="48"/>
       <c r="D222" s="48"/>
     </row>
-    <row r="223" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="47"/>
       <c r="C223" s="48"/>
       <c r="D223" s="48"/>
     </row>
-    <row r="224" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="47"/>
       <c r="C224" s="48"/>
       <c r="D224" s="48"/>
     </row>
-    <row r="225" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="47"/>
       <c r="C225" s="48"/>
       <c r="D225" s="48"/>
     </row>
-    <row r="226" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="47"/>
       <c r="C226" s="48"/>
       <c r="D226" s="48"/>
     </row>
-    <row r="227" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="47"/>
       <c r="C227" s="48"/>
       <c r="D227" s="48"/>
     </row>
-    <row r="228" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="47"/>
       <c r="C228" s="48"/>
       <c r="D228" s="48"/>
     </row>
-    <row r="229" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="47"/>
       <c r="C229" s="48"/>
       <c r="D229" s="48"/>
     </row>
-    <row r="230" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="47"/>
       <c r="C230" s="48"/>
       <c r="D230" s="48"/>
     </row>
-    <row r="231" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="47"/>
       <c r="C231" s="48"/>
       <c r="D231" s="48"/>
     </row>
-    <row r="232" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="47"/>
       <c r="C232" s="48"/>
       <c r="D232" s="48"/>
     </row>
-    <row r="233" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="47"/>
       <c r="C233" s="48"/>
       <c r="D233" s="48"/>
     </row>
-    <row r="234" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="47"/>
       <c r="C234" s="48"/>
       <c r="D234" s="48"/>
     </row>
-    <row r="235" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="47"/>
       <c r="C235" s="48"/>
       <c r="D235" s="48"/>
     </row>
-    <row r="236" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="47"/>
       <c r="C236" s="48"/>
       <c r="D236" s="48"/>
     </row>
-    <row r="237" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="47"/>
       <c r="C237" s="48"/>
       <c r="D237" s="48"/>
     </row>
-    <row r="238" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="47"/>
       <c r="C238" s="48"/>
       <c r="D238" s="48"/>
     </row>
-    <row r="239" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="47"/>
       <c r="C239" s="48"/>
       <c r="D239" s="48"/>
     </row>
-    <row r="240" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="47"/>
       <c r="C240" s="48"/>
       <c r="D240" s="48"/>
     </row>
-    <row r="241" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="47"/>
       <c r="C241" s="48"/>
       <c r="D241" s="48"/>
     </row>
-    <row r="242" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="47"/>
       <c r="C242" s="48"/>
       <c r="D242" s="48"/>
     </row>
-    <row r="243" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="47"/>
       <c r="C243" s="48"/>
       <c r="D243" s="48"/>
     </row>
-    <row r="244" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="47"/>
       <c r="C244" s="48"/>
       <c r="D244" s="48"/>
     </row>
-    <row r="245" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="47"/>
       <c r="C245" s="48"/>
       <c r="D245" s="48"/>
     </row>
-    <row r="246" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="47"/>
       <c r="C246" s="48"/>
       <c r="D246" s="48"/>
     </row>
-    <row r="247" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="47"/>
       <c r="C247" s="48"/>
       <c r="D247" s="48"/>
     </row>
-    <row r="248" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="47"/>
       <c r="C248" s="48"/>
       <c r="D248" s="48"/>
     </row>
-    <row r="249" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="47"/>
       <c r="C249" s="48"/>
       <c r="D249" s="48"/>
     </row>
-    <row r="250" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="47"/>
       <c r="C250" s="48"/>
       <c r="D250" s="48"/>
     </row>
-    <row r="251" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="47"/>
       <c r="C251" s="48"/>
       <c r="D251" s="48"/>
     </row>
-    <row r="252" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="47"/>
       <c r="C252" s="48"/>
       <c r="D252" s="48"/>
     </row>
-    <row r="253" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="47"/>
       <c r="C253" s="48"/>
       <c r="D253" s="48"/>
     </row>
-    <row r="254" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="47"/>
       <c r="C254" s="48"/>
       <c r="D254" s="48"/>
     </row>
-    <row r="255" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="47"/>
       <c r="C255" s="48"/>
       <c r="D255" s="48"/>
     </row>
-    <row r="256" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="47"/>
       <c r="C256" s="48"/>
       <c r="D256" s="48"/>
     </row>
-    <row r="257" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="47"/>
       <c r="C257" s="48"/>
       <c r="D257" s="48"/>
     </row>
-    <row r="258" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="47"/>
       <c r="C258" s="48"/>
       <c r="D258" s="48"/>
+    </row>
+    <row r="259" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="47"/>
+      <c r="C259" s="48"/>
+      <c r="D259" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6881,7 +5586,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z2"/>
@@ -6891,15 +5596,15 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="6" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6941,7 +5646,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -6950,7 +5655,7 @@
       </c>
       <c r="C2" s="11">
         <f ca="1">NOW()</f>
-        <v>43918.512571643521</v>
+        <v>44156.576064004628</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
@@ -6987,7 +5692,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W1000"/>
@@ -6997,13 +5702,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="23" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="23" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7020,16 +5725,16 @@
         <v>37</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -7046,12 +5751,12 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>32</v>
@@ -7077,12 +5782,12 @@
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>41</v>
@@ -7108,7 +5813,7 @@
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -7133,15 +5838,15 @@
       <c r="V4" s="20"/>
       <c r="W4" s="20"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -7164,15 +5869,15 @@
       <c r="V5" s="20"/>
       <c r="W5" s="20"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -7195,15 +5900,15 @@
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -7226,15 +5931,15 @@
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -7257,15 +5962,15 @@
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -7288,7 +5993,7 @@
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -7313,15 +6018,15 @@
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7344,15 +6049,15 @@
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7375,15 +6080,15 @@
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7406,15 +6111,15 @@
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7437,15 +6142,15 @@
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -7468,15 +6173,15 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7499,7 +6204,7 @@
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -7524,15 +6229,15 @@
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -7555,15 +6260,15 @@
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -7586,15 +6291,15 @@
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -7617,15 +6322,15 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -7648,15 +6353,15 @@
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -7679,15 +6384,15 @@
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -7710,7 +6415,7 @@
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -7735,15 +6440,15 @@
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -7766,15 +6471,15 @@
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -7797,15 +6502,15 @@
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -7828,15 +6533,15 @@
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7859,15 +6564,15 @@
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -7890,7 +6595,7 @@
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -7915,12 +6620,12 @@
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>263</v>
+        <v>126</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>32</v>
@@ -7946,12 +6651,12 @@
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>268</v>
+        <v>127</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>41</v>
@@ -7977,7 +6682,7 @@
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -8002,170 +6707,170 @@
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" ref="B44:B47" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="46" t="s">
-        <v>307</v>
+        <v>142</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>308</v>
+        <v>143</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>309</v>
+        <v>144</v>
       </c>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
@@ -8188,15 +6893,15 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="s">
-        <v>307</v>
+        <v>142</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>311</v>
+        <v>146</v>
       </c>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
@@ -8219,1157 +6924,1157 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="46" t="s">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="46" t="s">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="46" t="s">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="s">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>334</v>
+        <v>169</v>
       </c>
       <c r="C63" s="46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>336</v>
+        <v>171</v>
       </c>
       <c r="C64" s="46" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>340</v>
+        <v>175</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>342</v>
+        <v>177</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="B72" t="s">
-        <v>350</v>
+        <v>185</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>195</v>
       </c>
       <c r="C73" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/forms/app/quarantine.xlsx
+++ b/forms/app/quarantine.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="293">
   <si>
     <t>list_name</t>
   </si>
@@ -689,16 +689,10 @@
     <t>selected(../staying_at, 'other')</t>
   </si>
   <si>
-    <t>select_one provinces</t>
-  </si>
-  <si>
     <t>Province</t>
   </si>
   <si>
     <t>minimal</t>
-  </si>
-  <si>
-    <t>select_one districts</t>
   </si>
   <si>
     <t>district</t>
@@ -1091,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1206,6 +1200,7 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1492,10 +1487,10 @@
   <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2348,7 +2343,7 @@
         <v>188</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
@@ -2388,7 +2383,7 @@
         <v>191</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
@@ -2428,7 +2423,7 @@
         <v>194</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
@@ -2466,7 +2461,7 @@
         <v>198</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
@@ -2504,7 +2499,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
@@ -2542,7 +2537,7 @@
         <v>202</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
@@ -2580,7 +2575,7 @@
         <v>205</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
@@ -2618,7 +2613,7 @@
         <v>39</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
@@ -2750,7 +2745,7 @@
         <v>209</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E34" s="52"/>
       <c r="F34" s="52"/>
@@ -2790,7 +2785,7 @@
         <v>212</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
@@ -2828,7 +2823,7 @@
         <v>214</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
@@ -2868,7 +2863,7 @@
         <v>217</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
@@ -2898,23 +2893,23 @@
       <c r="AB37" s="57"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
-        <v>219</v>
+      <c r="A38" s="64" t="s">
+        <v>186</v>
       </c>
       <c r="B38" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="52"/>
       <c r="G38" s="51"/>
       <c r="H38" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
@@ -2938,30 +2933,30 @@
       <c r="AB38" s="57"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B39" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>224</v>
-      </c>
       <c r="D39" s="57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E39" s="52"/>
       <c r="F39" s="52"/>
       <c r="G39" s="51"/>
       <c r="H39" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
       <c r="L39" s="53"/>
       <c r="M39" s="51" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N39" s="52"/>
       <c r="O39" s="52"/>
@@ -2984,13 +2979,13 @@
         <v>186</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
@@ -3019,16 +3014,16 @@
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="B41" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>230</v>
-      </c>
       <c r="D41" s="57" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
@@ -3060,13 +3055,13 @@
         <v>186</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
@@ -3095,16 +3090,16 @@
     </row>
     <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="B43" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>235</v>
-      </c>
       <c r="D43" s="57" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
@@ -3133,16 +3128,16 @@
     </row>
     <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
@@ -3174,13 +3169,13 @@
         <v>203</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="52"/>
@@ -3218,7 +3213,7 @@
         <v>62</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="52"/>
@@ -3247,16 +3242,16 @@
     </row>
     <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="52"/>
@@ -3382,13 +3377,13 @@
         <v>36</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
@@ -3422,13 +3417,13 @@
         <v>203</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E52" s="52"/>
       <c r="F52" s="52"/>
@@ -3466,7 +3461,7 @@
         <v>62</v>
       </c>
       <c r="D53" s="57" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="52"/>
@@ -3495,16 +3490,16 @@
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="52"/>
@@ -3536,13 +3531,13 @@
         <v>186</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
@@ -3668,13 +3663,13 @@
         <v>36</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
@@ -3708,13 +3703,13 @@
         <v>186</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D60" s="57" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="52"/>
@@ -3746,13 +3741,13 @@
         <v>186</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
@@ -3784,13 +3779,13 @@
         <v>186</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D62" s="57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
@@ -3822,13 +3817,13 @@
         <v>186</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D63" s="57" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="52"/>
@@ -3860,13 +3855,13 @@
         <v>186</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D64" s="57" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
@@ -3898,13 +3893,13 @@
         <v>186</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
@@ -4031,7 +4026,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -4058,7 +4053,7 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4072,7 +4067,7 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -4099,7 +4094,7 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -4120,13 +4115,13 @@
         <v>47</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4134,13 +4129,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4165,7 +4160,7 @@
         <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5655,7 +5650,7 @@
       </c>
       <c r="C2" s="11">
         <f ca="1">NOW()</f>
-        <v>44156.576064004628</v>
+        <v>44156.611250578702</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
